--- a/Assets/Resources/Data/SecretQuestList.xlsx
+++ b/Assets/Resources/Data/SecretQuestList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>enemy</t>
   </si>
@@ -40,251 +40,180 @@
     <t>Warg</t>
   </si>
   <si>
-    <t>戦闘シミュレータへようこそ。君には実践を想定した訓練を受けてもらう。</t>
+    <t>Dragon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skelton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cyclops</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SkyDragon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Troll</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Robot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Golem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隠しクエスト1</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隠しクエスト2</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隠しクエスト3</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隠しクエスト4</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隠しクエスト5</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隠しクエスト6</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隠しクエスト7</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隠しクエスト8</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隠しクエスト9</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無謀な挑戦だ</t>
     <rPh sb="0" eb="2">
-      <t>セントウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>キミ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジッセン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>クンレン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>前回と同じ敵だ。3体の討伐が目標だ。検討を祈る。</t>
+      <t>ムボウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チョウセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラスボスを倒すまでは、挑まない方がいい</t>
+    <rPh sb="5" eb="6">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イド</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>透けないトン</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>是非、少ないコード解放数でクリアしてみてほしい。</t>
     <rPh sb="0" eb="2">
-      <t>ゼンカイ</t>
+      <t>ゼヒ</t>
     </rPh>
     <rPh sb="3" eb="4">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>トウバツ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ケントウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>イノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今回はドラゴンとの戦闘を訓練してもらう。正直言って、このドラゴンは弱いぞ。</t>
-    <rPh sb="0" eb="2">
-      <t>コンカイ</t>
+      <t>スク</t>
     </rPh>
     <rPh sb="9" eb="11">
-      <t>セントウ</t>
+      <t>カイホウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コードをすべて解放したら簡単に勝てる。自分との闘い。</t>
+    <rPh sb="7" eb="9">
+      <t>カイホウ</t>
     </rPh>
     <rPh sb="12" eb="14">
-      <t>クンレン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ショウジキ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ヨワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ドラゴンは主に魔法を得意とする。気を付けてくれ。</t>
-    <rPh sb="5" eb="6">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トクイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今回の敵はスケルトンだ。このあたりでは生息は確認はされていないが、訓練の一環として戦闘をしてもらう。</t>
-    <rPh sb="0" eb="2">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>テキ</t>
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
     </rPh>
     <rPh sb="19" eb="21">
-      <t>セイソク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>クンレン</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>イッカン</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>セントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スケルトンは物理攻撃が特に強い。注意するんだな。</t>
-    <rPh sb="6" eb="8">
-      <t>ブツリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>チュウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今回はドラゴンとの戦闘だ。もう慣れたか？</t>
-    <rPh sb="0" eb="2">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セントウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今回はスケルトンとの戦闘だ。</t>
-    <rPh sb="0" eb="2">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Dragon</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Skelton</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cyclops</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SkyDragon</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Troll</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Robot</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Golem</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>隠しクエスト1</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>隠しクエスト2</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>隠しクエスト3</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>隠しクエスト4</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>隠しクエスト5</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>隠しクエスト6</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>隠しクエスト7</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>隠しクエスト8</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>隠しクエスト9</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タタカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こいつは厄介。</t>
+    <rPh sb="4" eb="6">
+      <t>ヤッカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロボッツ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラスボス。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これが最後！</t>
+    <rPh sb="3" eb="5">
+      <t>サイゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -643,12 +572,12 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="28.125" customWidth="1"/>
+    <col min="6" max="6" width="65.25" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -692,15 +621,15 @@
         <v>900</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -715,15 +644,15 @@
         <v>900</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -738,15 +667,15 @@
         <v>900</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -761,15 +690,15 @@
         <v>900</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -784,15 +713,15 @@
         <v>900</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -807,15 +736,15 @@
         <v>900</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -830,15 +759,15 @@
         <v>900</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -853,21 +782,21 @@
         <v>900</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -876,10 +805,10 @@
         <v>900</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
